--- a/DanhMucSanPham.xlsx
+++ b/DanhMucSanPham.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\eCommerce-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9DB1C9C-1246-415C-9C5C-2451FCC5953B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE9B153-88E1-4B47-9E05-56A37DF77734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{4ABBB236-2CB0-4C4A-A6F1-30E47CCBDB51}"/>
   </bookViews>
@@ -517,7 +517,7 @@
   <dimension ref="G8:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -794,17 +794,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G20:H20"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="G23:H23"/>
@@ -814,6 +803,17 @@
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="I15:I17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DanhMucSanPham.xlsx
+++ b/DanhMucSanPham.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\eCommerce-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\eCommerce-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE9B153-88E1-4B47-9E05-56A37DF77734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31348AF9-497E-41A9-A364-CA3A4EDA841E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{4ABBB236-2CB0-4C4A-A6F1-30E47CCBDB51}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4ABBB236-2CB0-4C4A-A6F1-30E47CCBDB51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
     <t>Pepsi Không Calo vị chanh 330ml</t>
   </si>
@@ -132,6 +130,99 @@
   </si>
   <si>
     <t>Ly Pepsi cỡ lớn</t>
+  </si>
+  <si>
+    <t>Gà rán truyền thống</t>
+  </si>
+  <si>
+    <t>Gà</t>
+  </si>
+  <si>
+    <t>Burger</t>
+  </si>
+  <si>
+    <t>Burger tôm</t>
+  </si>
+  <si>
+    <t>Burger gà quay flava</t>
+  </si>
+  <si>
+    <t>Burger bò phô mai</t>
+  </si>
+  <si>
+    <t>Burger cá</t>
+  </si>
+  <si>
+    <t>Burger gà phô mai sốt BBQ</t>
+  </si>
+  <si>
+    <t>Burger bò khoai giòn tràn phô mai</t>
+  </si>
+  <si>
+    <t>Burger bò phô mai thịt xông khói</t>
+  </si>
+  <si>
+    <t>Salad</t>
+  </si>
+  <si>
+    <t>Phô mai viên</t>
+  </si>
+  <si>
+    <t>Túi</t>
+  </si>
+  <si>
+    <t>Hộp</t>
+  </si>
+  <si>
+    <t>Đùi gà quay</t>
+  </si>
+  <si>
+    <t>Phi-lê gà quay</t>
+  </si>
+  <si>
+    <t>Gà viên</t>
+  </si>
+  <si>
+    <t>Gà viên vừa</t>
+  </si>
+  <si>
+    <t>Gà viên lớn</t>
+  </si>
+  <si>
+    <t>Khoai tây nghiền size nhỏ</t>
+  </si>
+  <si>
+    <t>Khoai tây nghiền size vừa</t>
+  </si>
+  <si>
+    <t>Khoai tây nghiền size lớn</t>
+  </si>
+  <si>
+    <t>Khoai tây chiên size nhỏ</t>
+  </si>
+  <si>
+    <t>Khoai tây chiên size vừa</t>
+  </si>
+  <si>
+    <t>Khoai tây chiên size lớn</t>
+  </si>
+  <si>
+    <t>Khoai tây</t>
+  </si>
+  <si>
+    <t>Khoai tây lắc phô mai size nhỏ</t>
+  </si>
+  <si>
+    <t>Khoai tây lắc phô mai size vừa</t>
+  </si>
+  <si>
+    <t>Khoai tây lắc phô mai size lớn</t>
+  </si>
+  <si>
+    <t>Gà rán thảo mộc</t>
+  </si>
+  <si>
+    <t>Gà rán sốt 8 vị</t>
   </si>
 </sst>
 </file>
@@ -161,7 +252,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -184,11 +275,145 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -199,6 +424,48 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -514,20 +781,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4849F917-E207-417F-ACC1-43490E8037C1}">
-  <dimension ref="G8:J30"/>
+  <dimension ref="G8:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="30.5703125" style="1" customWidth="1"/>
+    <col min="1" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="30.5546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="34" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="15.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -537,7 +804,7 @@
       <c r="H8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J8" s="2" t="s">
@@ -545,13 +812,13 @@
       </c>
     </row>
     <row r="9" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J9" s="2">
@@ -559,101 +826,97 @@
       </c>
     </row>
     <row r="10" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G10" s="4"/>
+      <c r="G10" s="7"/>
       <c r="H10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="4"/>
+      <c r="I10" s="7"/>
       <c r="J10" s="2">
         <v>7000</v>
       </c>
     </row>
     <row r="11" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G11" s="4"/>
+      <c r="G11" s="8"/>
       <c r="H11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="4"/>
+      <c r="I11" s="7"/>
       <c r="J11" s="2">
         <v>10000</v>
       </c>
     </row>
     <row r="12" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="6" t="s">
         <v>20</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="2">
         <v>12000</v>
       </c>
     </row>
     <row r="13" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G13" s="4"/>
+      <c r="G13" s="7"/>
       <c r="H13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="4"/>
+      <c r="I13" s="7"/>
       <c r="J13" s="2">
         <v>18000</v>
       </c>
     </row>
     <row r="14" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G14" s="4"/>
+      <c r="G14" s="8"/>
       <c r="H14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="4"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="2">
         <v>25000</v>
       </c>
     </row>
     <row r="15" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="6" t="s">
         <v>28</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="2">
         <v>12000</v>
       </c>
     </row>
     <row r="16" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G16" s="4"/>
+      <c r="G16" s="7"/>
       <c r="H16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="4"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="2">
         <v>18000</v>
       </c>
     </row>
     <row r="17" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G17" s="4"/>
+      <c r="G17" s="8"/>
       <c r="H17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="4"/>
+      <c r="I17" s="8"/>
       <c r="J17" s="2">
         <v>25000</v>
       </c>
     </row>
     <row r="18" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="6" t="s">
         <v>24</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J18" s="2">
@@ -661,11 +924,11 @@
       </c>
     </row>
     <row r="19" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G19" s="4"/>
+      <c r="G19" s="8"/>
       <c r="H19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J19" s="2">
@@ -673,11 +936,11 @@
       </c>
     </row>
     <row r="20" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="3" t="s">
+      <c r="H20" s="5"/>
+      <c r="I20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J20" s="2">
@@ -685,11 +948,11 @@
       </c>
     </row>
     <row r="21" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4" t="s">
+      <c r="H21" s="5"/>
+      <c r="I21" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J21" s="2">
@@ -697,21 +960,21 @@
       </c>
     </row>
     <row r="22" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="8"/>
       <c r="J22" s="2">
         <v>12000</v>
       </c>
     </row>
     <row r="23" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4" t="s">
+      <c r="H23" s="5"/>
+      <c r="I23" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J23" s="2">
@@ -719,61 +982,61 @@
       </c>
     </row>
     <row r="24" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="7"/>
       <c r="J24" s="2">
         <v>10000</v>
       </c>
     </row>
     <row r="25" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="7"/>
       <c r="J25" s="2">
         <v>7000</v>
       </c>
     </row>
     <row r="26" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="7"/>
       <c r="J26" s="2">
         <v>10000</v>
       </c>
     </row>
     <row r="27" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="7"/>
       <c r="J27" s="2">
         <v>7000</v>
       </c>
     </row>
     <row r="28" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="8"/>
       <c r="J28" s="2">
         <v>10000</v>
       </c>
     </row>
     <row r="29" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="3" t="s">
+      <c r="H29" s="5"/>
+      <c r="I29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J29" s="2">
@@ -781,21 +1044,312 @@
       </c>
     </row>
     <row r="30" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="3" t="s">
+      <c r="H30" s="5"/>
+      <c r="I30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J30" s="2">
         <v>10000</v>
       </c>
     </row>
+    <row r="31" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="12"/>
+      <c r="I31" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J31" s="2">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="32" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G32" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H32" s="12"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="2">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="33" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" s="12"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="2">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="34" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" s="12"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="2">
+        <v>67000</v>
+      </c>
+    </row>
+    <row r="35" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G35" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H35" s="12"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="2">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="36" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G36" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I36" s="10"/>
+      <c r="J36" s="2">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="37" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="8"/>
+      <c r="H37" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I37" s="10"/>
+      <c r="J37" s="2">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="38" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H38" s="14"/>
+      <c r="I38" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J38" s="2">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="39" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G39" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H39" s="16"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="2">
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="40" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G40" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40" s="16"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="2">
+        <v>69000</v>
+      </c>
+    </row>
+    <row r="41" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G41" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41" s="16"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="2">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="42" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G42" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H42" s="16"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="2">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="43" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G43" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43" s="16"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="2">
+        <v>69000</v>
+      </c>
+    </row>
+    <row r="44" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G44" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H44" s="18"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="2">
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="45" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G45" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J45" s="2">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="46" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G46" s="7"/>
+      <c r="H46" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="2">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="47" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G47" s="7"/>
+      <c r="H47" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I47" s="7"/>
+      <c r="J47" s="2">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="48" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G48" s="7"/>
+      <c r="H48" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I48" s="7"/>
+      <c r="J48" s="2">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="49" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G49" s="7"/>
+      <c r="H49" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I49" s="7"/>
+      <c r="J49" s="2">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="50" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G50" s="7"/>
+      <c r="H50" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I50" s="7"/>
+      <c r="J50" s="2">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="51" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G51" s="7"/>
+      <c r="H51" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I51" s="7"/>
+      <c r="J51" s="2">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="52" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G52" s="7"/>
+      <c r="H52" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I52" s="7"/>
+      <c r="J52" s="2">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="53" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G53" s="8"/>
+      <c r="H53" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I53" s="8"/>
+      <c r="J53" s="2">
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="54" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G54" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H54" s="14"/>
+      <c r="I54" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J54" s="2">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="55" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G55" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H55" s="18"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="2">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="38">
+    <mergeCell ref="G45:G53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I9:I17"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I31:I37"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I38:I44"/>
+    <mergeCell ref="I45:I53"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G15:G17"/>
     <mergeCell ref="G9:G11"/>
-    <mergeCell ref="I9:I11"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="I23:I28"/>
     <mergeCell ref="G24:H24"/>
@@ -803,17 +1357,6 @@
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="I15:I17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DanhMucSanPham.xlsx
+++ b/DanhMucSanPham.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\eCommerce-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\eCommerce-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31348AF9-497E-41A9-A364-CA3A4EDA841E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B13C1D5-8022-4920-AA0F-0ECF66B252B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4ABBB236-2CB0-4C4A-A6F1-30E47CCBDB51}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{4ABBB236-2CB0-4C4A-A6F1-30E47CCBDB51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
   <si>
     <t>Pepsi Không Calo vị chanh 330ml</t>
   </si>
@@ -207,9 +207,6 @@
     <t>Khoai tây chiên size lớn</t>
   </si>
   <si>
-    <t>Khoai tây</t>
-  </si>
-  <si>
     <t>Khoai tây lắc phô mai size nhỏ</t>
   </si>
   <si>
@@ -223,6 +220,15 @@
   </si>
   <si>
     <t>Gà rán sốt 8 vị</t>
+  </si>
+  <si>
+    <t>Khoai tây chiên</t>
+  </si>
+  <si>
+    <t>Khoai tây nghiền</t>
+  </si>
+  <si>
+    <t>Khoai tây lắc phô mai</t>
   </si>
 </sst>
 </file>
@@ -413,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -437,35 +443,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -783,18 +795,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4849F917-E207-417F-ACC1-43490E8037C1}">
   <dimension ref="G8:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q47" sqref="Q47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="30.5546875" style="1" customWidth="1"/>
+    <col min="1" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="30.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="34" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.33203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="9" max="9" width="15.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -936,10 +948,10 @@
       </c>
     </row>
     <row r="20" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="5"/>
+      <c r="H20" s="19"/>
       <c r="I20" s="2" t="s">
         <v>11</v>
       </c>
@@ -948,10 +960,10 @@
       </c>
     </row>
     <row r="21" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="5"/>
+      <c r="H21" s="19"/>
       <c r="I21" s="6" t="s">
         <v>18</v>
       </c>
@@ -960,20 +972,20 @@
       </c>
     </row>
     <row r="22" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="5"/>
+      <c r="H22" s="19"/>
       <c r="I22" s="8"/>
       <c r="J22" s="2">
         <v>12000</v>
       </c>
     </row>
     <row r="23" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="5"/>
+      <c r="H23" s="19"/>
       <c r="I23" s="6" t="s">
         <v>11</v>
       </c>
@@ -982,60 +994,60 @@
       </c>
     </row>
     <row r="24" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H24" s="5"/>
+      <c r="H24" s="19"/>
       <c r="I24" s="7"/>
       <c r="J24" s="2">
         <v>10000</v>
       </c>
     </row>
     <row r="25" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="5"/>
+      <c r="H25" s="19"/>
       <c r="I25" s="7"/>
       <c r="J25" s="2">
         <v>7000</v>
       </c>
     </row>
     <row r="26" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="5"/>
+      <c r="H26" s="19"/>
       <c r="I26" s="7"/>
       <c r="J26" s="2">
         <v>10000</v>
       </c>
     </row>
     <row r="27" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="5"/>
+      <c r="H27" s="19"/>
       <c r="I27" s="7"/>
       <c r="J27" s="2">
         <v>7000</v>
       </c>
     </row>
     <row r="28" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H28" s="5"/>
+      <c r="H28" s="19"/>
       <c r="I28" s="8"/>
       <c r="J28" s="2">
         <v>10000</v>
       </c>
     </row>
     <row r="29" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="5"/>
+      <c r="H29" s="19"/>
       <c r="I29" s="2" t="s">
         <v>18</v>
       </c>
@@ -1044,10 +1056,10 @@
       </c>
     </row>
     <row r="30" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H30" s="5"/>
+      <c r="H30" s="19"/>
       <c r="I30" s="2" t="s">
         <v>11</v>
       </c>
@@ -1056,11 +1068,11 @@
       </c>
     </row>
     <row r="31" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H31" s="12"/>
-      <c r="I31" s="9" t="s">
+      <c r="H31" s="14"/>
+      <c r="I31" s="17" t="s">
         <v>33</v>
       </c>
       <c r="J31" s="2">
@@ -1068,41 +1080,41 @@
       </c>
     </row>
     <row r="32" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G32" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H32" s="12"/>
-      <c r="I32" s="10"/>
+      <c r="G32" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H32" s="14"/>
+      <c r="I32" s="18"/>
       <c r="J32" s="2">
         <v>45000</v>
       </c>
     </row>
     <row r="33" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G33" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H33" s="12"/>
-      <c r="I33" s="10"/>
+      <c r="G33" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="14"/>
+      <c r="I33" s="18"/>
       <c r="J33" s="2">
         <v>49000</v>
       </c>
     </row>
     <row r="34" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H34" s="12"/>
-      <c r="I34" s="10"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="18"/>
       <c r="J34" s="2">
         <v>67000</v>
       </c>
     </row>
     <row r="35" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H35" s="12"/>
-      <c r="I35" s="10"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="18"/>
       <c r="J35" s="2">
         <v>35000</v>
       </c>
@@ -1114,7 +1126,7 @@
       <c r="H36" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I36" s="10"/>
+      <c r="I36" s="18"/>
       <c r="J36" s="2">
         <v>36000</v>
       </c>
@@ -1124,16 +1136,16 @@
       <c r="H37" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I37" s="10"/>
+      <c r="I37" s="18"/>
       <c r="J37" s="2">
         <v>58000</v>
       </c>
     </row>
     <row r="38" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="13" t="s">
+      <c r="G38" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H38" s="14"/>
+      <c r="H38" s="10"/>
       <c r="I38" s="6" t="s">
         <v>34</v>
       </c>
@@ -1192,20 +1204,20 @@
       </c>
     </row>
     <row r="44" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G44" s="17" t="s">
+      <c r="G44" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H44" s="18"/>
+      <c r="H44" s="12"/>
       <c r="I44" s="8"/>
       <c r="J44" s="2">
         <v>97000</v>
       </c>
     </row>
     <row r="45" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G45" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H45" s="4" t="s">
+      <c r="G45" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H45" s="5" t="s">
         <v>54</v>
       </c>
       <c r="I45" s="6" t="s">
@@ -1216,8 +1228,8 @@
       </c>
     </row>
     <row r="46" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G46" s="7"/>
-      <c r="H46" s="4" t="s">
+      <c r="G46" s="20"/>
+      <c r="H46" s="5" t="s">
         <v>55</v>
       </c>
       <c r="I46" s="7"/>
@@ -1226,8 +1238,8 @@
       </c>
     </row>
     <row r="47" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G47" s="7"/>
-      <c r="H47" s="4" t="s">
+      <c r="G47" s="20"/>
+      <c r="H47" s="5" t="s">
         <v>56</v>
       </c>
       <c r="I47" s="7"/>
@@ -1236,8 +1248,10 @@
       </c>
     </row>
     <row r="48" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G48" s="7"/>
-      <c r="H48" s="4" t="s">
+      <c r="G48" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H48" s="5" t="s">
         <v>51</v>
       </c>
       <c r="I48" s="7"/>
@@ -1246,8 +1260,8 @@
       </c>
     </row>
     <row r="49" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G49" s="7"/>
-      <c r="H49" s="4" t="s">
+      <c r="G49" s="20"/>
+      <c r="H49" s="5" t="s">
         <v>52</v>
       </c>
       <c r="I49" s="7"/>
@@ -1256,8 +1270,8 @@
       </c>
     </row>
     <row r="50" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G50" s="7"/>
-      <c r="H50" s="4" t="s">
+      <c r="G50" s="20"/>
+      <c r="H50" s="5" t="s">
         <v>53</v>
       </c>
       <c r="I50" s="7"/>
@@ -1266,9 +1280,11 @@
       </c>
     </row>
     <row r="51" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G51" s="7"/>
-      <c r="H51" s="4" t="s">
-        <v>58</v>
+      <c r="G51" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="2">
@@ -1276,9 +1292,9 @@
       </c>
     </row>
     <row r="52" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G52" s="7"/>
-      <c r="H52" s="4" t="s">
-        <v>59</v>
+      <c r="G52" s="20"/>
+      <c r="H52" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="I52" s="7"/>
       <c r="J52" s="2">
@@ -1286,9 +1302,9 @@
       </c>
     </row>
     <row r="53" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G53" s="8"/>
-      <c r="H53" s="4" t="s">
-        <v>60</v>
+      <c r="G53" s="20"/>
+      <c r="H53" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="2">
@@ -1296,10 +1312,10 @@
       </c>
     </row>
     <row r="54" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G54" s="13" t="s">
+      <c r="G54" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H54" s="14"/>
+      <c r="H54" s="10"/>
       <c r="I54" s="6" t="s">
         <v>45</v>
       </c>
@@ -1308,18 +1324,42 @@
       </c>
     </row>
     <row r="55" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G55" s="17" t="s">
+      <c r="G55" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H55" s="18"/>
+      <c r="H55" s="12"/>
       <c r="I55" s="8"/>
       <c r="J55" s="2">
         <v>30000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="G45:G53"/>
+  <mergeCells count="40">
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:I28"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I38:I44"/>
+    <mergeCell ref="I45:I53"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="G51:G53"/>
     <mergeCell ref="G54:H54"/>
     <mergeCell ref="G55:H55"/>
     <mergeCell ref="I9:I17"/>
@@ -1335,28 +1375,6 @@
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I38:I44"/>
-    <mergeCell ref="I45:I53"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:I28"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
